--- a/test/pthsample1.xlsx
+++ b/test/pthsample1.xlsx
@@ -1,47 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wonju\Documents\WJ_Python\QM_Develop_Machinelearning\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV\Python\QM_Develop_Machinelearning\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6732341D-878B-414C-BD94-38C00D683DA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="8">
-  <si>
-    <t>Blank</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bloomage-HA</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>IldongHA</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bloomage-HA_Gamma</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>IldongHA_Gamma</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="53">
   <si>
     <t>Concentration(ug)</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -52,14 +31,203 @@
   </si>
   <si>
     <t>Type</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bloomage-TS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bloomage-TS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ildong-TS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bloomage</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bloomage</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ildong</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ildong</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cycle</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1st</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1st</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1st</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>2nd</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2nd</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1st_PVP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1st_Trehalose</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1st_Sucrose</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1st_PVP_TS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1st_Trehalose_TS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1st_Sucrose_TS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3rd_1C</t>
+  </si>
+  <si>
+    <t>3rd_1C</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3rd_1C</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3rd_2C</t>
+  </si>
+  <si>
+    <t>3rd_2C</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3rd_2C</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3rd_3C</t>
+  </si>
+  <si>
+    <t>3rd_3C</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3rd_3C</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3rd_1C_TS</t>
+  </si>
+  <si>
+    <t>3rd_1C_TS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3rd_1C_TS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3rd_2C_TS</t>
+  </si>
+  <si>
+    <t>3rd_2C_TS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3rd_2C_TS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4th_2C</t>
+  </si>
+  <si>
+    <t>4th_2C</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4th_2C</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4th_2C_TS</t>
+  </si>
+  <si>
+    <t>4th_2C_TS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4th_2C_TS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4th_2C_TS*</t>
+  </si>
+  <si>
+    <t>4th_2C_TS*</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4th_2C_TS*</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3rd</t>
+  </si>
+  <si>
+    <t>3rd</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3rd</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4th</t>
+  </si>
+  <si>
+    <t>4th</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4th</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +368,13 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="33">
@@ -383,7 +558,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -498,6 +673,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -543,8 +744,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -865,7 +1071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E717E579-E148-40AF-BE1F-070032F61685}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -876,10 +1082,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1041,569 +1247,1954 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F076D861-270E-49D5-AD5A-14A6663592D5}">
-  <dimension ref="A1:B69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F165" sqref="F165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>35.6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>14.1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>13.8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>22.793954999999997</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>24.393180000000001</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>26.377174999999998</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>21.552760000000003</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>30.721785000000001</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>25.910969999999999</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>25.079725</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>22.673689999999997</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>34.406450000000007</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>27.804779999999997</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>35.486050000000006</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17.56053</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>12.531030000000001</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>21.968989999999998</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>23.964825000000001</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>26.226479999999999</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>32.984134999999995</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>27.181234999999997</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>39.928110000000004</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>31.401705</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>23.946535000000001</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>31.649175000000003</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>20.828795</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>25.264330000000001</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>39.258685000000007</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>18.746805000000002</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>21.561895</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>12.173215000000001</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>13.323390000000002</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>22.469645</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>29.809469999999997</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>18.880320000000001</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>24.919815</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>26.817709999999998</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>33.82443</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>34.124004999999997</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>25.912189999999999</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>25.415230000000001</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>29.570729999999998</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>26.952809999999996</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>29.163074999999996</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>25.040295</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>29.070319999999999</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>25.401095000000002</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>26.221114999999998</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>26.767380000000006</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>23.655795000000001</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>28.439255000000006</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>35.360554999999998</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>30.534050000000004</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>25.036580000000001</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>15.301304999999999</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>26.644844999999997</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>10.2761</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>17.957450000000001</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>25.251844999999999</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>19.401775000000001</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>4.3541099999999995</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>3.23536</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3.1381950000000001</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3.1159599999999998</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>3.2727600000000003</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>22.793954999999997</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>24.393180000000001</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>26.377174999999998</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>21.552760000000003</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>30.721785000000001</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>25.910969999999999</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>25.079725</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>22.673689999999997</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>34.406450000000007</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>27.804779999999997</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>35.486050000000006</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17.56053</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>12.531030000000001</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>21.968989999999998</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>23.964825000000001</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>26.226479999999999</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>32.984134999999995</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>27.181234999999997</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>39.928110000000004</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>31.401705</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>23.946535000000001</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>31.649175000000003</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>20.828795</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>25.264330000000001</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>39.258685000000007</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>18.746805000000002</v>
-      </c>
-      <c r="B32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>21.561895</v>
-      </c>
-      <c r="B33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>12.173215000000001</v>
-      </c>
-      <c r="B34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>13.323390000000002</v>
-      </c>
-      <c r="B35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>22.469645</v>
-      </c>
-      <c r="B36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>29.809469999999997</v>
-      </c>
-      <c r="B37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>18.880320000000001</v>
-      </c>
-      <c r="B38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>24.919815</v>
-      </c>
-      <c r="B39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>26.817709999999998</v>
-      </c>
-      <c r="B40" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>33.82443</v>
-      </c>
-      <c r="B41" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>34.124004999999997</v>
-      </c>
-      <c r="B42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>25.912189999999999</v>
-      </c>
-      <c r="B43" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>25.415230000000001</v>
-      </c>
-      <c r="B44" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>29.570729999999998</v>
-      </c>
-      <c r="B45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>26.952809999999996</v>
-      </c>
-      <c r="B46" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>29.163074999999996</v>
-      </c>
-      <c r="B47" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>25.040295</v>
-      </c>
-      <c r="B48" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>29.070319999999999</v>
-      </c>
-      <c r="B49" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>25.401095000000002</v>
-      </c>
-      <c r="B50" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>26.221114999999998</v>
-      </c>
-      <c r="B51" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>26.767380000000006</v>
-      </c>
-      <c r="B52" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>23.655795000000001</v>
-      </c>
-      <c r="B53" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>28.439255000000006</v>
-      </c>
-      <c r="B54" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>35.360554999999998</v>
-      </c>
-      <c r="B55" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>30.534050000000004</v>
-      </c>
-      <c r="B56" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>25.036580000000001</v>
-      </c>
-      <c r="B57" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>15.301304999999999</v>
-      </c>
-      <c r="B58" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>26.644844999999997</v>
-      </c>
-      <c r="B59" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>10.2761</v>
-      </c>
-      <c r="B60" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>17.957450000000001</v>
-      </c>
-      <c r="B61" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>25.251844999999999</v>
-      </c>
-      <c r="B62" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>19.401775000000001</v>
-      </c>
-      <c r="B63" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64">
+      <c r="C64" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
         <v>17.080685000000003</v>
       </c>
-      <c r="B64" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65">
+      <c r="B65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
         <v>20.909704999999999</v>
       </c>
-      <c r="B65" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66">
+      <c r="B66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
         <v>22.730275000000002</v>
       </c>
-      <c r="B66" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67">
+      <c r="B67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
         <v>14.319455</v>
       </c>
-      <c r="B67" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68">
+      <c r="B68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
         <v>25.927334999999999</v>
       </c>
-      <c r="B68" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69">
+      <c r="B69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
         <v>19.810465000000001</v>
       </c>
-      <c r="B69" t="s">
-        <v>4</v>
+      <c r="B70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>40.263769999999994</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>21.089825000000001</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>28.151049999999998</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>33.761245000000002</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>42.031779999999998</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>44.10566</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>36.022529999999996</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>44.015734999999999</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>37.921514999999999</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>34.186720000000001</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>36.281979999999997</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>35.620995000000001</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>38.971994999999993</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>42.807199999999995</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>33.868560000000002</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>53.85137499999999</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>43.650295</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>38.86271</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>30.597484999999999</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>47.759260000000005</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>36.026474999999998</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>40.170285000000007</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>34.486364999999999</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>31.500484999999998</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>40.624430000000004</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>68.706370000000007</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>66.802419999999998</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>68.872529999999998</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>84.515070000000009</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>70.599180000000004</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>66.179095000000004</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>82.375305000000012</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>41.662355000000005</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>60.751024999999998</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>52.389980000000001</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>42.289755000000007</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>53.806600000000003</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>77.434034999999994</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>75.45483999999999</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>44.14226</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>92.674309999999991</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>93.182699999999997</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>57.665885000000003</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>71.372919999999993</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>67.808509999999998</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>83.121780000000001</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>82.33621500000001</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>67.922740000000005</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>78.633365000000012</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>72.152885000000012</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>84.754639999999995</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>81.182524999999998</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>89.122919999999993</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>98.373979999999989</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>80.584005000000005</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>109.87720999999999</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>51.592949999999995</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>108.11051500000002</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>86.168965</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>37.752559999999995</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>82.372735000000006</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>84.701395000000005</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>88.646574999999999</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>94.143065000000007</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>29.382215000000002</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>19.741679999999999</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>28.287599999999998</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>27.819410000000001</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>28.444355000000002</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>32.186865000000004</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>28.607920000000004</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>57.885375000000003</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>65.149114999999995</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>65.605679999999992</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>65.437134999999998</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>62.554110000000001</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>51.992460240397001</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>62.108788425003503</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>56.951001067470997</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>57.383697964567006</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>62.20579350747699</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>57.152732273014493</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>75.551986435427992</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>69.059496890873504</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>72.310386992387492</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>66.230158825530495</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>47.834532175443947</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>58.304277941509497</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>68.724977360051994</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>70.8048050037645</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>58.026761142026992</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>46.56936745396505</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>59.191985166466502</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>55.548251663124489</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>63.858398951829997</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>64.796328802234996</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>64.045832001726495</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>59.854849027078508</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>66.0973670631235</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>66.475306013833006</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>55.947674731973997</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>53.253760773899508</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>54.51699478794</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>52.669659247734998</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>53.503899739493995</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>58.566092257099498</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>